--- a/presentaciones.xlsx
+++ b/presentaciones.xlsx
@@ -1,49 +1,66 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28723"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juanc\OneDrive\Documentos\LAB-MAA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BA971E5-D8DE-44A2-9871-2F86DB38734B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{9BA971E5-D8DE-44A2-9871-2F86DB38734B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C76E7781-9344-451C-8C2D-FACB494DB498}"/>
   <bookViews>
     <workbookView xWindow="-48" yWindow="-48" windowWidth="23136" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Estudiante</t>
   </si>
   <si>
-    <t>Area</t>
+    <t>Área</t>
   </si>
   <si>
     <t>Paper</t>
   </si>
   <si>
     <t>Link</t>
+  </si>
+  <si>
+    <t>Jordan Quilodrán</t>
+  </si>
+  <si>
+    <t>Salud</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -363,21 +380,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="14.83984375" customWidth="1"/>
-    <col min="2" max="2" width="11.26171875" customWidth="1"/>
+    <col min="1" max="1" width="16.140625" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="35.15625" customWidth="1"/>
+    <col min="4" max="4" width="35.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -389,6 +406,14 @@
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
